--- a/source_plates/211209_ECHO_source_plate.xlsx
+++ b/source_plates/211209_ECHO_source_plate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B6C47-9FD1-4FE2-9172-C8E8EFE1E7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D2037-48DD-409B-97CF-92A47895147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>TJ1_RFP</t>
   </si>
@@ -105,9 +105,6 @@
     <t>B12</t>
   </si>
   <si>
-    <t>C4, C5, A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12</t>
-  </si>
-  <si>
     <t>pBT009.J1.117.J306</t>
   </si>
   <si>
@@ -366,10 +363,16 @@
     <t>D22</t>
   </si>
   <si>
-    <t>50,50,50,65,65,65,65,65,65,65,65,65,65,65</t>
-  </si>
-  <si>
     <t>actually its 15ul</t>
+  </si>
+  <si>
+    <t>37.325,50,65,65,65,65,65,65,65,65,65,65,65</t>
+  </si>
+  <si>
+    <t>C5, A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12</t>
+  </si>
+  <si>
+    <t>C4,20</t>
   </si>
 </sst>
 </file>
@@ -766,14 +769,16 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="5" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -821,12 +826,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -849,13 +856,13 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3">
         <v>511</v>
@@ -864,7 +871,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -888,13 +895,13 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
       </c>
       <c r="D4">
         <v>223</v>
@@ -925,13 +932,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5">
         <v>115.5</v>
@@ -962,13 +969,13 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
       </c>
       <c r="D6">
         <v>157</v>
@@ -999,13 +1006,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7">
         <v>116.6</v>
@@ -1036,13 +1043,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
       <c r="D8">
         <v>135.69999999999999</v>
@@ -1073,13 +1080,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
       </c>
       <c r="D9">
         <v>190.3</v>
@@ -1110,13 +1117,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
       </c>
       <c r="D10">
         <v>189.3</v>
@@ -1127,13 +1134,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
       </c>
       <c r="D11">
         <v>40</v>
@@ -1170,13 +1177,13 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>188</v>
       </c>
       <c r="E12">
-        <v>51.274999999999999</v>
+        <v>45.65</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1204,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
       </c>
       <c r="D13">
         <v>1.88</v>
@@ -1224,13 +1231,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>356</v>
       </c>
       <c r="E14">
-        <v>43.9</v>
+        <v>41.4</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1255,13 +1262,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
       <c r="D15">
         <v>237.9</v>
@@ -1292,13 +1299,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
       </c>
       <c r="D16">
         <v>2.379</v>
@@ -1329,13 +1336,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
       </c>
       <c r="D17">
         <v>0.2379</v>
@@ -1358,7 +1365,7 @@
         <v>222</v>
       </c>
       <c r="E18">
-        <v>49.95</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1397,10 +1404,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1414,10 +1421,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -1431,10 +1438,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -1448,10 +1455,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1465,10 +1472,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -1482,10 +1489,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -1499,10 +1506,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
@@ -1522,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>120.7</v>
@@ -1539,7 +1546,7 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>117</v>
@@ -1553,47 +1560,47 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
       </c>
       <c r="D31">
         <v>226.9</v>
       </c>
       <c r="E31">
-        <v>49.3</v>
+        <v>49.05</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>2.2690000000000001</v>
       </c>
       <c r="E32">
-        <v>53.725000000000001</v>
+        <v>46.475000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>149</v>
@@ -1604,13 +1611,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>151.5</v>
@@ -1621,317 +1628,317 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>185</v>
       </c>
       <c r="E35">
-        <v>51.15</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
         <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
       </c>
       <c r="D36">
         <v>165.2</v>
       </c>
       <c r="E36">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
       </c>
       <c r="D37">
         <v>179.7</v>
       </c>
       <c r="E37">
-        <v>65</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38">
         <v>183.3</v>
       </c>
       <c r="E38">
-        <v>65</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>188</v>
       </c>
       <c r="E39">
-        <v>65</v>
+        <v>62.375</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40">
         <v>183.1</v>
       </c>
       <c r="E40">
-        <v>65</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41">
         <v>244.2</v>
       </c>
       <c r="E41">
-        <v>65</v>
+        <v>64.775000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
         <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
       </c>
       <c r="D42">
         <v>189.4</v>
       </c>
       <c r="E42">
-        <v>65</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
         <v>82</v>
       </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>213.7</v>
       </c>
       <c r="E43">
-        <v>65</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <f>D40/100</f>
         <v>1.831</v>
       </c>
       <c r="E45">
-        <v>65</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46">
         <f t="shared" ref="D46:D48" si="0">D41/100</f>
         <v>2.4419999999999997</v>
       </c>
       <c r="E46">
-        <v>65</v>
+        <v>64.775000000000006</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D47">
         <f t="shared" si="0"/>
         <v>1.8940000000000001</v>
       </c>
       <c r="E47">
-        <v>65</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <f t="shared" si="0"/>
         <v>2.137</v>
       </c>
       <c r="E48">
-        <v>65</v>
+        <v>64.75</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <f>D32/10</f>
         <v>0.22690000000000002</v>
       </c>
       <c r="E50">
-        <v>65</v>
+        <v>64.974999999999994</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51">
         <f>D40/1000</f>
         <v>0.18309999999999998</v>
       </c>
       <c r="E51">
-        <v>65</v>
+        <v>64.974999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52">
         <f>D41/1000</f>
         <v>0.2442</v>
       </c>
       <c r="E52">
-        <v>65</v>
+        <v>64.974999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53">
         <f>D42/1000</f>
         <v>0.18940000000000001</v>
       </c>
       <c r="E53">
-        <v>65</v>
+        <v>64.974999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54">
         <f>D43/1000</f>
         <v>0.2137</v>
       </c>
       <c r="E54">
-        <v>65</v>
+        <v>64.974999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/source_plates/211209_ECHO_source_plate.xlsx
+++ b/source_plates/211209_ECHO_source_plate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285D2037-48DD-409B-97CF-92A47895147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6502640C-8D16-4A2B-AB51-C0827FBE5146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{546D7F41-76BF-4117-BD41-03A67E651BAB}"/>
   </bookViews>
@@ -366,13 +366,13 @@
     <t>actually its 15ul</t>
   </si>
   <si>
-    <t>37.325,50,65,65,65,65,65,65,65,65,65,65,65</t>
-  </si>
-  <si>
     <t>C5, A2,A3,A4,A5,A6,A7,A8,A9,A10,A11,A12</t>
   </si>
   <si>
     <t>C4,20</t>
+  </si>
+  <si>
+    <t>27.6,50,65,65,65,65,65,65,65,65,65,65,65</t>
   </si>
 </sst>
 </file>
@@ -769,7 +769,7 @@
   <dimension ref="A1:Y54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H12" sqref="H12:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1183,7 +1183,7 @@
         <v>188</v>
       </c>
       <c r="E12">
-        <v>45.65</v>
+        <v>44.3</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1237,7 +1237,7 @@
         <v>356</v>
       </c>
       <c r="E14">
-        <v>41.4</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1640,7 +1640,7 @@
         <v>185</v>
       </c>
       <c r="E35">
-        <v>48.4</v>
+        <v>47.85</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
         <v>165.2</v>
       </c>
       <c r="E36">
-        <v>62</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1674,7 @@
         <v>179.7</v>
       </c>
       <c r="E37">
-        <v>62.25</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
         <v>183.3</v>
       </c>
       <c r="E38">
-        <v>62.25</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1708,7 +1708,7 @@
         <v>188</v>
       </c>
       <c r="E39">
-        <v>62.375</v>
+        <v>61.85</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
